--- a/biology/Médecine/Djamil_Aliyev/Djamil_Aliyev.xlsx
+++ b/biology/Médecine/Djamil_Aliyev/Djamil_Aliyev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Djamil Aziz Oghlu Aliyev (en azéri : Cəmil Əziz oğlu Əliyev), né le 30 mars 1946 à Bakou (Azerbaïdjan), est un docteur en médecine, professeur, académicien de l'Académie nationale des sciences d'Azerbaïdjan, scientifique émérite de la République d’Azerbaïdjan, directeur du centre national d'oncologie du ministère de la santé de la République d'Azerbaïdjan.
 En 1973, il soutient sa thèse sur le « Diagnostic et le traitement du cancer de la membrane muqueuse de la peau de la lèvre inférieure et de la cavité buccale ». En 1978, il soutient une thèse de doctorat sur « La chirurgie plastique pour le mélanome et le cancer de la peau » au centre scientifique d'oncologie de l'union de l'Académie des sciences médicales de l'URSS à Moscou et reçoit le diplôme de docteur en médecine.
-En 1980, Djamil Aliyev reçoit le prix d'académicien N. N. Petrov de l'Académie des sciences médicales de l'URSS pour la publication d'une monographie[1].
-En 1987, il reçoit le titre de professeur d'oncologie par décision de la commission suprême d'attestation de l'URSS pour une activité efficace dans le domaine de la formation du personnel scientifique. Il dirige le département d'oncologie à l'institut d'État d'Azerbaïdjan pour l'amélioration des médecins depuis 1994. Depuis 1990, il est directeur général du centre national d'oncologie[2]. Djamil Aliyev est l'auteur de plus de 600 articles scientifiques, 10 inventions, 18 monographies et manuels pour étudiants[3]. En 2001, il est élu membre à part entière de l'Académie nationale des sciences d'Azerbaïdjan[4].
+En 1980, Djamil Aliyev reçoit le prix d'académicien N. N. Petrov de l'Académie des sciences médicales de l'URSS pour la publication d'une monographie.
+En 1987, il reçoit le titre de professeur d'oncologie par décision de la commission suprême d'attestation de l'URSS pour une activité efficace dans le domaine de la formation du personnel scientifique. Il dirige le département d'oncologie à l'institut d'État d'Azerbaïdjan pour l'amélioration des médecins depuis 1994. Depuis 1990, il est directeur général du centre national d'oncologie. Djamil Aliyev est l'auteur de plus de 600 articles scientifiques, 10 inventions, 18 monographies et manuels pour étudiants. En 2001, il est élu membre à part entière de l'Académie nationale des sciences d'Azerbaïdjan.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Sociétés dont il est membre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Membre titulaire de l'Académie nationale des sciences d'Azerbaïdjan
 Membre titulaire de la New York Academy of Sciences
@@ -551,21 +565,23 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980 : Prix de l'académicien N. N. Petrov de l'Académie des sciences médicales de l'URSS
 1996 : Prix Yusif-Mammadaliyev de la société des Lumières de la connaissance de l'Académie nationale des sciences d'Azerbaïdjan
 2000 : Scientifique émérite d'Azerbaïdjan
 2003 : Prix de l'académicien M. Topchubashov
-2006 : Ordre de Chohrat[5]
+2006 : Ordre de Chohrat
 2011 : Scientifique émérite de la République du Daghestan
 2015 : Grande médaille d'or du service au monde turc
-2016 : Ordre de Charaf[6]
+2016 : Ordre de Charaf
 2018 : Ambassadeur de la science et de la paix
 Ordre N. Pirogov de l'Académie européenne des sciences naturelles[Quand ?]
 Scientifique honoraire de l'Europe[Quand ?]
 Médaille V. Leibniz[Quand ?]
-Prix académicien Mirgasimov[7]</t>
+Prix académicien Mirgasimov</t>
         </is>
       </c>
     </row>
